--- a/datf_core/test/testprotocol/test_transposeprotocol.xlsx
+++ b/datf_core/test/testprotocol/test_transposeprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB641F-861B-4D52-AB65-BBA7F556F756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BBF696-79BD-4087-804D-6E70FF98F031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="132">
   <si>
     <t>Sno.</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>gcp-gcs</t>
-  </si>
-  <si>
-    <t>teradata</t>
   </si>
   <si>
     <t>dataprofilelimit</t>
@@ -627,7 +624,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B7EB12A5-7DBB-4555-B2C0-33C41BB1C784}" name="comparetype"/>
     <tableColumn id="2" xr3:uid="{29FBA9CE-F214-413F-8067-886B551BF267}" name="querygenerationmode"/>
@@ -973,9 +970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1122,7 @@
         <v>63</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -2487,7 +2484,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,11 +2605,6 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" s="15"/>
     </row>
